--- a/Documents/assessment/AshlieGray _T1A3_2/docs/Test cases.xlsx
+++ b/Documents/assessment/AshlieGray _T1A3_2/docs/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/assessment/AshlieGray _T1A3_2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A97AB0B-D4AB-0440-BB8B-457860F0A57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89107269-B3D5-0B48-8E5E-E6DCA5442555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="3480" windowWidth="28040" windowHeight="16740" xr2:uid="{F9AB855E-31D2-3347-BB34-03DAD58A867C}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{F9AB855E-31D2-3347-BB34-03DAD58A867C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Test</t>
   </si>
@@ -158,7 +158,13 @@
     <t>error handling code wrong, test failed</t>
   </si>
   <si>
-    <t>table printed to screen</t>
+    <t>pushed data to csv file</t>
+  </si>
+  <si>
+    <t>blank code area</t>
+  </si>
+  <si>
+    <t>test failed, check data type with TTY Table documentation</t>
   </si>
 </sst>
 </file>
@@ -194,9 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +521,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,6 +560,9 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
@@ -564,6 +574,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
@@ -717,10 +730,10 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
